--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ychakri@yahoo.com</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>EmailId</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>User2</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>User4</t>
+  </si>
+  <si>
+    <t>User5</t>
   </si>
 </sst>
 </file>
@@ -379,74 +397,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="B2" r:id="rId6"/>
-    <hyperlink ref="B3" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8"/>
-    <hyperlink ref="B5" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
